--- a/Running projects/BAF Head Office/Running Bill No 1 - H.V.A.C Maintenance Scope.xlsx
+++ b/Running projects/BAF Head Office/Running Bill No 1 - H.V.A.C Maintenance Scope.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BFF2A1-0B73-4202-90C0-B13B18C4C5B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00871F64-06EB-4E19-AFE9-C3ED8747E5CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,6 +960,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,14 +989,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A11:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1836,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="29">
-        <v>45756</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -1857,13 +1857,13 @@
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
     </row>
     <row r="20" spans="1:5" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -1898,15 +1898,15 @@
       </c>
       <c r="C22" s="46">
         <f>AHUs!J28</f>
-        <v>1014000</v>
+        <v>792000</v>
       </c>
       <c r="D22" s="46">
         <f>AHUs!K28</f>
-        <v>249000</v>
+        <v>204000</v>
       </c>
       <c r="E22" s="46">
         <f>D22+C22</f>
-        <v>1263000</v>
+        <v>996000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,15 +1918,15 @@
       </c>
       <c r="C23" s="46">
         <f>AHUs!J52</f>
-        <v>1014000</v>
+        <v>820000</v>
       </c>
       <c r="D23" s="46">
         <f>AHUs!K52</f>
-        <v>249000</v>
+        <v>209500</v>
       </c>
       <c r="E23" s="46">
         <f>D23+C23</f>
-        <v>1263000</v>
+        <v>1029500</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1938,15 +1938,15 @@
       </c>
       <c r="C24" s="46">
         <f>AHUs!J76</f>
-        <v>830000</v>
+        <v>665000</v>
       </c>
       <c r="D24" s="46">
         <f>AHUs!K76</f>
-        <v>211500</v>
+        <v>179000</v>
       </c>
       <c r="E24" s="46">
         <f>D24+C24</f>
-        <v>1041500</v>
+        <v>844000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1958,15 +1958,15 @@
       </c>
       <c r="C25" s="46">
         <f>AHUs!J100</f>
-        <v>830000</v>
+        <v>661000</v>
       </c>
       <c r="D25" s="46">
         <f>AHUs!K100</f>
-        <v>211500</v>
+        <v>177000</v>
       </c>
       <c r="E25" s="46">
         <f>D25+C25</f>
-        <v>1041500</v>
+        <v>838000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1989,15 +1989,15 @@
       </c>
       <c r="C27" s="46">
         <f>AHUs!J146</f>
-        <v>417000</v>
+        <v>208500</v>
       </c>
       <c r="D27" s="46">
         <f>AHUs!K146</f>
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="E27" s="46">
         <f>D27+C27</f>
-        <v>507000</v>
+        <v>253500</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,15 +2049,15 @@
       </c>
       <c r="C30" s="37">
         <f>'Plant Room'!J15</f>
-        <v>6100000</v>
+        <v>5584000</v>
       </c>
       <c r="D30" s="37">
         <f>'Plant Room'!K15</f>
-        <v>330000</v>
+        <v>301000</v>
       </c>
       <c r="E30" s="37">
         <f t="shared" si="0"/>
-        <v>6430000</v>
+        <v>5885000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,15 +2067,15 @@
       </c>
       <c r="C31" s="38">
         <f>SUM(C22:C30)</f>
-        <v>10205000</v>
+        <v>8730500</v>
       </c>
       <c r="D31" s="38">
         <f>SUM(D22:D30)</f>
-        <v>1341000</v>
+        <v>1115500</v>
       </c>
       <c r="E31" s="38">
         <f>SUM(E22:E30)</f>
-        <v>11546000</v>
+        <v>9846000</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,11 +2086,11 @@
       <c r="C32" s="38"/>
       <c r="D32" s="38">
         <f>D31*15%</f>
-        <v>201150</v>
+        <v>167325</v>
       </c>
       <c r="E32" s="38">
         <f>D32</f>
-        <v>201150</v>
+        <v>167325</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2100,15 +2100,15 @@
       </c>
       <c r="C33" s="38">
         <f>C32+C31</f>
-        <v>10205000</v>
+        <v>8730500</v>
       </c>
       <c r="D33" s="38">
         <f t="shared" ref="D33:E33" si="1">D32+D31</f>
-        <v>1542150</v>
+        <v>1282825</v>
       </c>
       <c r="E33" s="38">
         <f t="shared" si="1"/>
-        <v>11747150</v>
+        <v>10013325</v>
       </c>
       <c r="G33" s="63"/>
     </row>
@@ -2130,8 +2130,8 @@
   </sheetPr>
   <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A41" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2154,36 +2154,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="68" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:11" s="8" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2301,16 +2301,16 @@
         <f>F8*C8</f>
         <v>20000</v>
       </c>
-      <c r="I8" s="71">
-        <v>0.5</v>
+      <c r="I8" s="64">
+        <v>0.7</v>
       </c>
       <c r="J8" s="12">
         <f>I8*G8</f>
-        <v>35000</v>
+        <v>49000</v>
       </c>
       <c r="K8" s="12">
         <f>I8*H8</f>
-        <v>10000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
@@ -2340,16 +2340,16 @@
         <f t="shared" ref="H9:H27" si="1">F9*C9</f>
         <v>40000</v>
       </c>
-      <c r="I9" s="71">
-        <v>0.5</v>
+      <c r="I9" s="64">
+        <v>0.7</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J27" si="2">I9*G9</f>
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" ref="K9:K27" si="3">I9*H9</f>
-        <v>20000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -2379,16 +2379,16 @@
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="I10" s="71">
-        <v>1</v>
+      <c r="I10" s="64">
+        <v>0.7</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>84000</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2418,16 +2418,16 @@
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="I11" s="71">
-        <v>1</v>
+      <c r="I11" s="64">
+        <v>0.7</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="2"/>
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="3"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -2457,7 +2457,7 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="64">
         <v>0</v>
       </c>
       <c r="J12" s="12">
@@ -2496,7 +2496,7 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="64">
         <v>0</v>
       </c>
       <c r="J13" s="12">
@@ -2535,7 +2535,7 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="64">
         <v>0</v>
       </c>
       <c r="J14" s="12">
@@ -2574,16 +2574,16 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="I15" s="71">
-        <v>1</v>
+      <c r="I15" s="64">
+        <v>0.7</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -2613,16 +2613,16 @@
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="I16" s="71">
-        <v>1</v>
+      <c r="I16" s="64">
+        <v>0.7</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="2"/>
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -2652,7 +2652,7 @@
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="I17" s="71">
+      <c r="I17" s="64">
         <v>0.25</v>
       </c>
       <c r="J17" s="12">
@@ -2691,7 +2691,7 @@
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="64">
         <v>0.25</v>
       </c>
       <c r="J18" s="12">
@@ -2730,7 +2730,7 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="64">
         <v>0</v>
       </c>
       <c r="J19" s="12">
@@ -2769,16 +2769,16 @@
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="I20" s="71">
-        <v>1</v>
+      <c r="I20" s="64">
+        <v>0.7</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="2"/>
-        <v>150000</v>
+        <v>105000</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2808,7 +2808,7 @@
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="64">
         <v>0</v>
       </c>
       <c r="J21" s="12">
@@ -2847,7 +2847,7 @@
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="I22" s="71">
+      <c r="I22" s="64">
         <v>0</v>
       </c>
       <c r="J22" s="12">
@@ -2886,7 +2886,7 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="I23" s="71">
+      <c r="I23" s="64">
         <v>0.5</v>
       </c>
       <c r="J23" s="12">
@@ -2925,7 +2925,7 @@
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="64">
         <v>0</v>
       </c>
       <c r="J24" s="12">
@@ -2964,7 +2964,7 @@
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="I25" s="71">
+      <c r="I25" s="64">
         <v>0</v>
       </c>
       <c r="J25" s="12">
@@ -3003,7 +3003,7 @@
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="I26" s="71">
+      <c r="I26" s="64">
         <v>0.8</v>
       </c>
       <c r="J26" s="12">
@@ -3042,37 +3042,37 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="I27" s="71">
-        <v>1</v>
+      <c r="I27" s="64">
+        <v>0.7</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
-      <c r="I28" s="72"/>
+      <c r="I28" s="65"/>
       <c r="J28" s="24">
         <f>SUM(J7:J27)</f>
-        <v>1014000</v>
+        <v>792000</v>
       </c>
       <c r="K28" s="24">
         <f>SUM(K7:K27)</f>
-        <v>249000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="73"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
@@ -3099,7 +3099,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="73"/>
+      <c r="I30" s="66"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
@@ -3112,7 +3112,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="71"/>
+      <c r="I31" s="64"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
@@ -3143,16 +3143,16 @@
         <f t="shared" ref="H32:H51" si="5">F32*C32</f>
         <v>20000</v>
       </c>
-      <c r="I32" s="71">
-        <v>0.5</v>
+      <c r="I32" s="64">
+        <v>0.7</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" ref="J32:J51" si="6">I32*G32</f>
-        <v>35000</v>
+        <v>49000</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" ref="K32:K51" si="7">I32*H32</f>
-        <v>10000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
@@ -3182,16 +3182,16 @@
         <f t="shared" si="5"/>
         <v>40000</v>
       </c>
-      <c r="I33" s="71">
-        <v>0.5</v>
+      <c r="I33" s="64">
+        <v>0.7</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="6"/>
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="7"/>
-        <v>20000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -3221,16 +3221,16 @@
         <f t="shared" si="5"/>
         <v>40000</v>
       </c>
-      <c r="I34" s="71">
-        <v>1</v>
+      <c r="I34" s="64">
+        <v>0.7</v>
       </c>
       <c r="J34" s="12">
         <f t="shared" si="6"/>
-        <v>120000</v>
+        <v>84000</v>
       </c>
       <c r="K34" s="12">
         <f t="shared" si="7"/>
-        <v>40000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3260,16 +3260,16 @@
         <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="I35" s="71">
-        <v>1</v>
+      <c r="I35" s="64">
+        <v>0.7</v>
       </c>
       <c r="J35" s="12">
         <f t="shared" si="6"/>
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="K35" s="12">
         <f t="shared" si="7"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -3299,7 +3299,7 @@
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
-      <c r="I36" s="71">
+      <c r="I36" s="64">
         <v>0</v>
       </c>
       <c r="J36" s="12">
@@ -3338,7 +3338,7 @@
         <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-      <c r="I37" s="71">
+      <c r="I37" s="64">
         <v>0</v>
       </c>
       <c r="J37" s="12">
@@ -3377,7 +3377,7 @@
         <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-      <c r="I38" s="71">
+      <c r="I38" s="64">
         <v>0</v>
       </c>
       <c r="J38" s="12">
@@ -3416,16 +3416,16 @@
         <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-      <c r="I39" s="71">
-        <v>1</v>
+      <c r="I39" s="64">
+        <v>0.75</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>22500</v>
       </c>
       <c r="K39" s="12">
         <f t="shared" si="7"/>
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -3455,16 +3455,16 @@
         <f t="shared" si="5"/>
         <v>40000</v>
       </c>
-      <c r="I40" s="71">
-        <v>1</v>
+      <c r="I40" s="64">
+        <v>0.75</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="6"/>
-        <v>300000</v>
+        <v>225000</v>
       </c>
       <c r="K40" s="12">
         <f t="shared" si="7"/>
-        <v>40000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="I41" s="71">
+      <c r="I41" s="64">
         <v>0.25</v>
       </c>
       <c r="J41" s="12">
@@ -3533,7 +3533,7 @@
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="I42" s="71">
+      <c r="I42" s="64">
         <v>0.25</v>
       </c>
       <c r="J42" s="12">
@@ -3572,7 +3572,7 @@
         <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-      <c r="I43" s="71">
+      <c r="I43" s="64">
         <v>0</v>
       </c>
       <c r="J43" s="12">
@@ -3611,16 +3611,16 @@
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="I44" s="71">
-        <v>1</v>
+      <c r="I44" s="64">
+        <v>0.75</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="6"/>
-        <v>150000</v>
+        <v>112500</v>
       </c>
       <c r="K44" s="12">
         <f t="shared" si="7"/>
-        <v>30000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3650,7 +3650,7 @@
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="I45" s="71">
+      <c r="I45" s="64">
         <v>0</v>
       </c>
       <c r="J45" s="12">
@@ -3689,7 +3689,7 @@
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
-      <c r="I46" s="71">
+      <c r="I46" s="64">
         <v>0</v>
       </c>
       <c r="J46" s="12">
@@ -3728,7 +3728,7 @@
         <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-      <c r="I47" s="71">
+      <c r="I47" s="64">
         <v>0.5</v>
       </c>
       <c r="J47" s="12">
@@ -3767,7 +3767,7 @@
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
-      <c r="I48" s="71">
+      <c r="I48" s="64">
         <v>0</v>
       </c>
       <c r="J48" s="12">
@@ -3806,7 +3806,7 @@
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
-      <c r="I49" s="71">
+      <c r="I49" s="64">
         <v>0</v>
       </c>
       <c r="J49" s="12">
@@ -3845,7 +3845,7 @@
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
-      <c r="I50" s="71">
+      <c r="I50" s="64">
         <v>0.8</v>
       </c>
       <c r="J50" s="12">
@@ -3884,37 +3884,37 @@
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="I51" s="71">
-        <v>1</v>
+      <c r="I51" s="64">
+        <v>0.8</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="6"/>
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="K51" s="12">
         <f t="shared" si="7"/>
-        <v>10000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="67"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="71"/>
       <c r="G52" s="62"/>
       <c r="H52" s="62"/>
-      <c r="I52" s="72"/>
+      <c r="I52" s="65"/>
       <c r="J52" s="24">
         <f>SUM(J30:J51)</f>
-        <v>1014000</v>
+        <v>820000</v>
       </c>
       <c r="K52" s="24">
         <f>SUM(K30:K51)</f>
-        <v>249000</v>
+        <v>209500</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -3926,7 +3926,7 @@
       <c r="F53" s="59"/>
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
-      <c r="I53" s="72"/>
+      <c r="I53" s="65"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
     </row>
@@ -3941,7 +3941,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="73"/>
+      <c r="I54" s="66"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
@@ -3954,7 +3954,7 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="71"/>
+      <c r="I55" s="64"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
     </row>
@@ -3985,16 +3985,16 @@
         <f t="shared" ref="H56:H75" si="9">F56*C56</f>
         <v>25000</v>
       </c>
-      <c r="I56" s="71">
-        <v>0.5</v>
+      <c r="I56" s="64">
+        <v>0.7</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" ref="J56:J75" si="10">I56*G56</f>
-        <v>35000</v>
+        <v>49000</v>
       </c>
       <c r="K56" s="12">
         <f t="shared" ref="K56:K75" si="11">I56*H56</f>
-        <v>12500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
@@ -4024,16 +4024,16 @@
         <f t="shared" si="9"/>
         <v>30000</v>
       </c>
-      <c r="I57" s="71">
-        <v>0.5</v>
+      <c r="I57" s="64">
+        <v>0.7</v>
       </c>
       <c r="J57" s="12">
         <f t="shared" si="10"/>
-        <v>37500</v>
+        <v>52500</v>
       </c>
       <c r="K57" s="12">
         <f t="shared" si="11"/>
-        <v>15000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -4063,16 +4063,16 @@
         <f t="shared" si="9"/>
         <v>30000</v>
       </c>
-      <c r="I58" s="71">
-        <v>1</v>
+      <c r="I58" s="64">
+        <v>0.7</v>
       </c>
       <c r="J58" s="12">
         <f t="shared" si="10"/>
-        <v>90000</v>
+        <v>62999.999999999993</v>
       </c>
       <c r="K58" s="12">
         <f t="shared" si="11"/>
-        <v>30000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4102,16 +4102,16 @@
         <f t="shared" si="9"/>
         <v>40000</v>
       </c>
-      <c r="I59" s="71">
-        <v>1</v>
+      <c r="I59" s="64">
+        <v>0.7</v>
       </c>
       <c r="J59" s="12">
         <f t="shared" si="10"/>
-        <v>120000</v>
+        <v>84000</v>
       </c>
       <c r="K59" s="12">
         <f t="shared" si="11"/>
-        <v>40000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
         <f t="shared" si="9"/>
         <v>3000</v>
       </c>
-      <c r="I60" s="71">
+      <c r="I60" s="64">
         <v>0</v>
       </c>
       <c r="J60" s="12">
@@ -4180,7 +4180,7 @@
         <f t="shared" si="9"/>
         <v>15000</v>
       </c>
-      <c r="I61" s="71">
+      <c r="I61" s="64">
         <v>0</v>
       </c>
       <c r="J61" s="12">
@@ -4219,7 +4219,7 @@
         <f t="shared" si="9"/>
         <v>15000</v>
       </c>
-      <c r="I62" s="71">
+      <c r="I62" s="64">
         <v>0</v>
       </c>
       <c r="J62" s="12">
@@ -4258,16 +4258,16 @@
         <f t="shared" si="9"/>
         <v>15000</v>
       </c>
-      <c r="I63" s="71">
-        <v>1</v>
+      <c r="I63" s="64">
+        <v>0.7</v>
       </c>
       <c r="J63" s="12">
         <f t="shared" si="10"/>
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="K63" s="12">
         <f t="shared" si="11"/>
-        <v>15000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -4297,16 +4297,16 @@
         <f t="shared" si="9"/>
         <v>30000</v>
       </c>
-      <c r="I64" s="71">
-        <v>1</v>
+      <c r="I64" s="64">
+        <v>0.7</v>
       </c>
       <c r="J64" s="12">
         <f t="shared" si="10"/>
-        <v>275000</v>
+        <v>192500</v>
       </c>
       <c r="K64" s="12">
         <f t="shared" si="11"/>
-        <v>30000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -4336,16 +4336,16 @@
         <f t="shared" si="9"/>
         <v>30000</v>
       </c>
-      <c r="I65" s="71">
-        <v>0.25</v>
+      <c r="I65" s="64">
+        <v>0.35</v>
       </c>
       <c r="J65" s="12">
         <f t="shared" si="10"/>
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="K65" s="12">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4375,7 +4375,7 @@
         <f t="shared" si="9"/>
         <v>30000</v>
       </c>
-      <c r="I66" s="71">
+      <c r="I66" s="64">
         <v>0.25</v>
       </c>
       <c r="J66" s="12">
@@ -4414,7 +4414,7 @@
         <f t="shared" si="9"/>
         <v>15000</v>
       </c>
-      <c r="I67" s="71">
+      <c r="I67" s="64">
         <v>0</v>
       </c>
       <c r="J67" s="12">
@@ -4453,16 +4453,16 @@
         <f t="shared" si="9"/>
         <v>30000</v>
       </c>
-      <c r="I68" s="71">
-        <v>1</v>
+      <c r="I68" s="64">
+        <v>0.7</v>
       </c>
       <c r="J68" s="12">
         <f t="shared" si="10"/>
-        <v>140000</v>
+        <v>98000</v>
       </c>
       <c r="K68" s="12">
         <f t="shared" si="11"/>
-        <v>30000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4492,7 +4492,7 @@
         <f t="shared" si="9"/>
         <v>30000</v>
       </c>
-      <c r="I69" s="71">
+      <c r="I69" s="64">
         <v>0</v>
       </c>
       <c r="J69" s="12">
@@ -4531,7 +4531,7 @@
         <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="I70" s="71">
+      <c r="I70" s="64">
         <v>0</v>
       </c>
       <c r="J70" s="12">
@@ -4570,7 +4570,7 @@
         <f t="shared" si="9"/>
         <v>20000</v>
       </c>
-      <c r="I71" s="71">
+      <c r="I71" s="64">
         <v>0.5</v>
       </c>
       <c r="J71" s="12">
@@ -4609,7 +4609,7 @@
         <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="I72" s="71">
+      <c r="I72" s="64">
         <v>0</v>
       </c>
       <c r="J72" s="12">
@@ -4648,7 +4648,7 @@
         <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="I73" s="71">
+      <c r="I73" s="64">
         <v>0</v>
       </c>
       <c r="J73" s="12">
@@ -4687,7 +4687,7 @@
         <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="I74" s="71">
+      <c r="I74" s="64">
         <v>0.8</v>
       </c>
       <c r="J74" s="12">
@@ -4726,41 +4726,41 @@
         <f t="shared" si="9"/>
         <v>10000</v>
       </c>
-      <c r="I75" s="71">
-        <v>1</v>
+      <c r="I75" s="64">
+        <v>0.7</v>
       </c>
       <c r="J75" s="12">
         <f t="shared" si="10"/>
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="K75" s="12">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="65" t="s">
+      <c r="A76" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="67"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="71"/>
       <c r="G76" s="62"/>
       <c r="H76" s="62"/>
-      <c r="I76" s="72"/>
+      <c r="I76" s="65"/>
       <c r="J76" s="24">
         <f>SUM(J55:J75)</f>
-        <v>830000</v>
+        <v>665000</v>
       </c>
       <c r="K76" s="24">
         <f>SUM(K55:K75)</f>
-        <v>211500</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I77" s="74"/>
+      <c r="I77" s="67"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
@@ -4773,7 +4773,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="73"/>
+      <c r="I78" s="66"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
@@ -4786,7 +4786,7 @@
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="71"/>
+      <c r="I79" s="64"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
     </row>
@@ -4817,16 +4817,16 @@
         <f t="shared" ref="H80:H99" si="13">F80*C80</f>
         <v>25000</v>
       </c>
-      <c r="I80" s="71">
-        <v>0.5</v>
+      <c r="I80" s="64">
+        <v>0.7</v>
       </c>
       <c r="J80" s="12">
         <f t="shared" ref="J80:J99" si="14">I80*G80</f>
-        <v>35000</v>
+        <v>49000</v>
       </c>
       <c r="K80" s="12">
         <f t="shared" ref="K80:K99" si="15">I80*H80</f>
-        <v>12500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
@@ -4856,16 +4856,16 @@
         <f t="shared" si="13"/>
         <v>30000</v>
       </c>
-      <c r="I81" s="71">
-        <v>0.5</v>
+      <c r="I81" s="64">
+        <v>0.7</v>
       </c>
       <c r="J81" s="12">
         <f t="shared" si="14"/>
-        <v>37500</v>
+        <v>52500</v>
       </c>
       <c r="K81" s="12">
         <f t="shared" si="15"/>
-        <v>15000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -4895,16 +4895,16 @@
         <f t="shared" si="13"/>
         <v>30000</v>
       </c>
-      <c r="I82" s="71">
-        <v>1</v>
+      <c r="I82" s="64">
+        <v>0.7</v>
       </c>
       <c r="J82" s="12">
         <f t="shared" si="14"/>
-        <v>90000</v>
+        <v>62999.999999999993</v>
       </c>
       <c r="K82" s="12">
         <f t="shared" si="15"/>
-        <v>30000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,16 +4934,16 @@
         <f t="shared" si="13"/>
         <v>40000</v>
       </c>
-      <c r="I83" s="71">
-        <v>1</v>
+      <c r="I83" s="64">
+        <v>0.7</v>
       </c>
       <c r="J83" s="12">
         <f t="shared" si="14"/>
-        <v>120000</v>
+        <v>84000</v>
       </c>
       <c r="K83" s="12">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -4973,7 +4973,7 @@
         <f t="shared" si="13"/>
         <v>3000</v>
       </c>
-      <c r="I84" s="71">
+      <c r="I84" s="64">
         <v>0</v>
       </c>
       <c r="J84" s="12">
@@ -5012,7 +5012,7 @@
         <f t="shared" si="13"/>
         <v>15000</v>
       </c>
-      <c r="I85" s="71">
+      <c r="I85" s="64">
         <v>0</v>
       </c>
       <c r="J85" s="12">
@@ -5051,7 +5051,7 @@
         <f t="shared" si="13"/>
         <v>15000</v>
       </c>
-      <c r="I86" s="71">
+      <c r="I86" s="64">
         <v>0</v>
       </c>
       <c r="J86" s="12">
@@ -5090,16 +5090,16 @@
         <f t="shared" si="13"/>
         <v>15000</v>
       </c>
-      <c r="I87" s="71">
-        <v>1</v>
+      <c r="I87" s="64">
+        <v>0.7</v>
       </c>
       <c r="J87" s="12">
         <f t="shared" si="14"/>
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="K87" s="12">
         <f t="shared" si="15"/>
-        <v>15000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,16 +5129,16 @@
         <f t="shared" si="13"/>
         <v>30000</v>
       </c>
-      <c r="I88" s="71">
-        <v>1</v>
+      <c r="I88" s="64">
+        <v>0.7</v>
       </c>
       <c r="J88" s="12">
         <f t="shared" si="14"/>
-        <v>275000</v>
+        <v>192500</v>
       </c>
       <c r="K88" s="12">
         <f t="shared" si="15"/>
-        <v>30000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <f t="shared" si="13"/>
         <v>30000</v>
       </c>
-      <c r="I89" s="71">
+      <c r="I89" s="64">
         <v>0.25</v>
       </c>
       <c r="J89" s="12">
@@ -5207,7 +5207,7 @@
         <f t="shared" si="13"/>
         <v>30000</v>
       </c>
-      <c r="I90" s="71">
+      <c r="I90" s="64">
         <v>0.25</v>
       </c>
       <c r="J90" s="12">
@@ -5246,7 +5246,7 @@
         <f t="shared" si="13"/>
         <v>15000</v>
       </c>
-      <c r="I91" s="71">
+      <c r="I91" s="64">
         <v>0</v>
       </c>
       <c r="J91" s="12">
@@ -5285,16 +5285,16 @@
         <f t="shared" si="13"/>
         <v>30000</v>
       </c>
-      <c r="I92" s="71">
-        <v>1</v>
+      <c r="I92" s="64">
+        <v>0.7</v>
       </c>
       <c r="J92" s="12">
         <f t="shared" si="14"/>
-        <v>140000</v>
+        <v>98000</v>
       </c>
       <c r="K92" s="12">
         <f t="shared" si="15"/>
-        <v>30000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5324,7 +5324,7 @@
         <f t="shared" si="13"/>
         <v>30000</v>
       </c>
-      <c r="I93" s="71">
+      <c r="I93" s="64">
         <v>0</v>
       </c>
       <c r="J93" s="12">
@@ -5363,7 +5363,7 @@
         <f t="shared" si="13"/>
         <v>5000</v>
       </c>
-      <c r="I94" s="71">
+      <c r="I94" s="64">
         <v>0</v>
       </c>
       <c r="J94" s="12">
@@ -5402,7 +5402,7 @@
         <f t="shared" si="13"/>
         <v>20000</v>
       </c>
-      <c r="I95" s="71">
+      <c r="I95" s="64">
         <v>0.5</v>
       </c>
       <c r="J95" s="12">
@@ -5441,7 +5441,7 @@
         <f t="shared" si="13"/>
         <v>5000</v>
       </c>
-      <c r="I96" s="71">
+      <c r="I96" s="64">
         <v>0</v>
       </c>
       <c r="J96" s="12">
@@ -5480,7 +5480,7 @@
         <f t="shared" si="13"/>
         <v>5000</v>
       </c>
-      <c r="I97" s="71">
+      <c r="I97" s="64">
         <v>0</v>
       </c>
       <c r="J97" s="12">
@@ -5519,7 +5519,7 @@
         <f t="shared" si="13"/>
         <v>5000</v>
       </c>
-      <c r="I98" s="71">
+      <c r="I98" s="64">
         <v>0.8</v>
       </c>
       <c r="J98" s="12">
@@ -5558,44 +5558,44 @@
         <f t="shared" si="13"/>
         <v>10000</v>
       </c>
-      <c r="I99" s="71">
-        <v>1</v>
+      <c r="I99" s="64">
+        <v>0.8</v>
       </c>
       <c r="J99" s="12">
         <f t="shared" si="14"/>
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="K99" s="12">
         <f t="shared" si="15"/>
-        <v>10000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="67"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="71"/>
       <c r="G100" s="62"/>
       <c r="H100" s="62"/>
-      <c r="I100" s="72"/>
+      <c r="I100" s="65"/>
       <c r="J100" s="24">
         <f>SUM(J78:J99)</f>
-        <v>830000</v>
+        <v>661000</v>
       </c>
       <c r="K100" s="24">
         <f>SUM(K78:K99)</f>
-        <v>211500</v>
+        <v>177000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I101" s="74"/>
+      <c r="I101" s="67"/>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I102" s="74"/>
+      <c r="I102" s="67"/>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
@@ -5608,7 +5608,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="73"/>
+      <c r="I103" s="66"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
@@ -5621,7 +5621,7 @@
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
-      <c r="I104" s="71"/>
+      <c r="I104" s="64"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
     </row>
@@ -5646,13 +5646,13 @@
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
-      <c r="I105" s="71"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="12">
-        <f>E105*C105</f>
+        <f t="shared" ref="J105:J135" si="16">E105*C105</f>
         <v>25000</v>
       </c>
       <c r="K105" s="12">
-        <f>F105*C105</f>
+        <f t="shared" ref="K105:K135" si="17">F105*C105</f>
         <v>10000</v>
       </c>
     </row>
@@ -5677,13 +5677,13 @@
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
-      <c r="I106" s="71"/>
+      <c r="I106" s="64"/>
       <c r="J106" s="12">
-        <f>E106*C106</f>
+        <f t="shared" si="16"/>
         <v>35000</v>
       </c>
       <c r="K106" s="12">
-        <f>F106*C106</f>
+        <f t="shared" si="17"/>
         <v>15000</v>
       </c>
     </row>
@@ -5708,13 +5708,13 @@
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="71"/>
+      <c r="I107" s="64"/>
       <c r="J107" s="12">
-        <f>E107*C107</f>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="K107" s="12">
-        <f>F107*C107</f>
+        <f t="shared" si="17"/>
         <v>15000</v>
       </c>
     </row>
@@ -5739,13 +5739,13 @@
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
-      <c r="I108" s="71"/>
+      <c r="I108" s="64"/>
       <c r="J108" s="12">
-        <f>E108*C108</f>
+        <f t="shared" si="16"/>
         <v>85000</v>
       </c>
       <c r="K108" s="12">
-        <f>F108*C108</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
     </row>
@@ -5770,13 +5770,13 @@
       </c>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
-      <c r="I109" s="71"/>
+      <c r="I109" s="64"/>
       <c r="J109" s="12">
-        <f>E109*C109</f>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="K109" s="12">
-        <f>F109*C109</f>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
     </row>
@@ -5801,13 +5801,13 @@
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
-      <c r="I110" s="71"/>
+      <c r="I110" s="64"/>
       <c r="J110" s="12">
-        <f>E110*C110</f>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="K110" s="12">
-        <f>F110*C110</f>
+        <f t="shared" si="17"/>
         <v>15000</v>
       </c>
     </row>
@@ -5832,13 +5832,13 @@
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
-      <c r="I111" s="71"/>
+      <c r="I111" s="64"/>
       <c r="J111" s="12">
-        <f>E111*C111</f>
+        <f t="shared" si="16"/>
         <v>60000</v>
       </c>
       <c r="K111" s="12">
-        <f>F111*C111</f>
+        <f t="shared" si="17"/>
         <v>30000</v>
       </c>
     </row>
@@ -5863,13 +5863,13 @@
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
-      <c r="I112" s="71"/>
+      <c r="I112" s="64"/>
       <c r="J112" s="12">
-        <f>E112*C112</f>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="K112" s="12">
-        <f>F112*C112</f>
+        <f t="shared" si="17"/>
         <v>20000</v>
       </c>
     </row>
@@ -5894,13 +5894,13 @@
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
-      <c r="I113" s="71"/>
+      <c r="I113" s="64"/>
       <c r="J113" s="12">
-        <f>E113*C113</f>
+        <f t="shared" si="16"/>
         <v>80000</v>
       </c>
       <c r="K113" s="12">
-        <f>F113*C113</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
     </row>
@@ -5925,13 +5925,13 @@
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
-      <c r="I114" s="71"/>
+      <c r="I114" s="64"/>
       <c r="J114" s="12">
-        <f>E114*C114</f>
+        <f t="shared" si="16"/>
         <v>20000</v>
       </c>
       <c r="K114" s="12">
-        <f>F114*C114</f>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
     </row>
@@ -5956,13 +5956,13 @@
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
-      <c r="I115" s="71"/>
+      <c r="I115" s="64"/>
       <c r="J115" s="12">
-        <f>E115*C115</f>
+        <f t="shared" si="16"/>
         <v>70000</v>
       </c>
       <c r="K115" s="12">
-        <f>F115*C115</f>
+        <f t="shared" si="17"/>
         <v>30000</v>
       </c>
     </row>
@@ -5987,13 +5987,13 @@
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
-      <c r="I116" s="71"/>
+      <c r="I116" s="64"/>
       <c r="J116" s="12">
-        <f>E116*C116</f>
+        <f t="shared" si="16"/>
         <v>20000</v>
       </c>
       <c r="K116" s="12">
-        <f>F116*C116</f>
+        <f t="shared" si="17"/>
         <v>20000</v>
       </c>
     </row>
@@ -6018,13 +6018,13 @@
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
-      <c r="I117" s="71"/>
+      <c r="I117" s="64"/>
       <c r="J117" s="12">
-        <f>E117*C117</f>
+        <f t="shared" si="16"/>
         <v>150000</v>
       </c>
       <c r="K117" s="12">
-        <f>F117*C117</f>
+        <f t="shared" si="17"/>
         <v>30000</v>
       </c>
     </row>
@@ -6049,13 +6049,13 @@
       </c>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
-      <c r="I118" s="71"/>
+      <c r="I118" s="64"/>
       <c r="J118" s="12">
-        <f>E118*C118</f>
+        <f t="shared" si="16"/>
         <v>60000</v>
       </c>
       <c r="K118" s="12">
-        <f>F118*C118</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
     </row>
@@ -6080,13 +6080,13 @@
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
-      <c r="I119" s="71"/>
+      <c r="I119" s="64"/>
       <c r="J119" s="12">
-        <f>E119*C119</f>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="K119" s="12">
-        <f>F119*C119</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
     </row>
@@ -6111,13 +6111,13 @@
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
-      <c r="I120" s="71"/>
+      <c r="I120" s="64"/>
       <c r="J120" s="12">
-        <f>E120*C120</f>
+        <f t="shared" si="16"/>
         <v>72000</v>
       </c>
       <c r="K120" s="12">
-        <f>F120*C120</f>
+        <f t="shared" si="17"/>
         <v>15000</v>
       </c>
     </row>
@@ -6142,13 +6142,13 @@
       </c>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
-      <c r="I121" s="71"/>
+      <c r="I121" s="64"/>
       <c r="J121" s="12">
-        <f>E121*C121</f>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="K121" s="12">
-        <f>F121*C121</f>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
     </row>
@@ -6173,13 +6173,13 @@
       </c>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="71"/>
+      <c r="I122" s="64"/>
       <c r="J122" s="12">
-        <f>E122*C122</f>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="K122" s="12">
-        <f>F122*C122</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
     </row>
@@ -6204,13 +6204,13 @@
       </c>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="71"/>
+      <c r="I123" s="64"/>
       <c r="J123" s="12">
-        <f>E123*C123</f>
+        <f t="shared" si="16"/>
         <v>45000</v>
       </c>
       <c r="K123" s="12">
-        <f>F123*C123</f>
+        <f t="shared" si="17"/>
         <v>8000</v>
       </c>
     </row>
@@ -6235,13 +6235,13 @@
       </c>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="71"/>
+      <c r="I124" s="64"/>
       <c r="J124" s="12">
-        <f>E124*C124</f>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="K124" s="12">
-        <f>F124*C124</f>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
     </row>
@@ -6266,13 +6266,13 @@
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="71"/>
+      <c r="I125" s="64"/>
       <c r="J125" s="12">
-        <f>E125*C125</f>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="K125" s="12">
-        <f>F125*C125</f>
+        <f t="shared" si="17"/>
         <v>70000</v>
       </c>
     </row>
@@ -6297,13 +6297,13 @@
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="71"/>
+      <c r="I126" s="64"/>
       <c r="J126" s="12">
-        <f>E126*C126</f>
+        <f t="shared" si="16"/>
         <v>10000</v>
       </c>
       <c r="K126" s="12">
-        <f>F126*C126</f>
+        <f t="shared" si="17"/>
         <v>20000</v>
       </c>
     </row>
@@ -6328,13 +6328,13 @@
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="71"/>
+      <c r="I127" s="64"/>
       <c r="J127" s="12">
-        <f>E127*C127</f>
+        <f t="shared" si="16"/>
         <v>510000</v>
       </c>
       <c r="K127" s="12">
-        <f>F127*C127</f>
+        <f t="shared" si="17"/>
         <v>90000</v>
       </c>
     </row>
@@ -6359,13 +6359,13 @@
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
-      <c r="I128" s="71"/>
+      <c r="I128" s="64"/>
       <c r="J128" s="12">
-        <f>E128*C128</f>
+        <f t="shared" si="16"/>
         <v>540000</v>
       </c>
       <c r="K128" s="12">
-        <f>F128*C128</f>
+        <f t="shared" si="17"/>
         <v>60000</v>
       </c>
     </row>
@@ -6390,13 +6390,13 @@
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
-      <c r="I129" s="71"/>
+      <c r="I129" s="64"/>
       <c r="J129" s="12">
-        <f>E129*C129</f>
+        <f t="shared" si="16"/>
         <v>180000</v>
       </c>
       <c r="K129" s="12">
-        <f>F129*C129</f>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
     </row>
@@ -6421,13 +6421,13 @@
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
-      <c r="I130" s="71"/>
+      <c r="I130" s="64"/>
       <c r="J130" s="12">
-        <f>E130*C130</f>
+        <f t="shared" si="16"/>
         <v>44800</v>
       </c>
       <c r="K130" s="12">
-        <f>F130*C130</f>
+        <f t="shared" si="17"/>
         <v>8000</v>
       </c>
     </row>
@@ -6452,13 +6452,13 @@
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
-      <c r="I131" s="71"/>
+      <c r="I131" s="64"/>
       <c r="J131" s="12">
-        <f>E131*C131</f>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="K131" s="12">
-        <f>F131*C131</f>
+        <f t="shared" si="17"/>
         <v>8000</v>
       </c>
     </row>
@@ -6483,13 +6483,13 @@
       </c>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
-      <c r="I132" s="71"/>
+      <c r="I132" s="64"/>
       <c r="J132" s="12">
-        <f>E132*C132</f>
+        <f t="shared" si="16"/>
         <v>265000</v>
       </c>
       <c r="K132" s="12">
-        <f>F132*C132</f>
+        <f t="shared" si="17"/>
         <v>20000</v>
       </c>
     </row>
@@ -6514,13 +6514,13 @@
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
-      <c r="I133" s="71"/>
+      <c r="I133" s="64"/>
       <c r="J133" s="12">
-        <f>E133*C133</f>
+        <f t="shared" si="16"/>
         <v>60000</v>
       </c>
       <c r="K133" s="12">
-        <f>F133*C133</f>
+        <f t="shared" si="17"/>
         <v>15000</v>
       </c>
     </row>
@@ -6545,13 +6545,13 @@
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
-      <c r="I134" s="71"/>
+      <c r="I134" s="64"/>
       <c r="J134" s="12">
-        <f>E134*C134</f>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="K134" s="12">
-        <f>F134*C134</f>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
     </row>
@@ -6574,28 +6574,28 @@
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
-      <c r="I135" s="71"/>
+      <c r="I135" s="64"/>
       <c r="J135" s="12">
-        <f>E135*C135</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K135" s="12">
-        <f>F135*C135</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="65" t="s">
+      <c r="A136" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B136" s="66"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="66"/>
-      <c r="F136" s="67"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="71"/>
       <c r="G136" s="62"/>
       <c r="H136" s="62"/>
-      <c r="I136" s="72"/>
+      <c r="I136" s="65"/>
       <c r="J136" s="24">
         <f>SUM(J103:J135)</f>
         <v>2581800</v>
@@ -6608,7 +6608,7 @@
       <c r="N136" s="45"/>
     </row>
     <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I137" s="74"/>
+      <c r="I137" s="67"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
@@ -6621,7 +6621,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="73"/>
+      <c r="I138" s="66"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
     </row>
@@ -6634,7 +6634,7 @@
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
-      <c r="I139" s="71"/>
+      <c r="I139" s="64"/>
       <c r="J139" s="12"/>
       <c r="K139" s="12"/>
     </row>
@@ -6658,23 +6658,23 @@
         <v>10000</v>
       </c>
       <c r="G140" s="12">
-        <f t="shared" ref="G140:G145" si="16">E140*C140</f>
+        <f t="shared" ref="G140:G145" si="18">E140*C140</f>
         <v>150000</v>
       </c>
       <c r="H140" s="12">
-        <f t="shared" ref="H140:H145" si="17">F140*C140</f>
+        <f t="shared" ref="H140:H145" si="19">F140*C140</f>
         <v>20000</v>
       </c>
-      <c r="I140" s="71">
-        <v>1</v>
+      <c r="I140" s="64">
+        <v>0.5</v>
       </c>
       <c r="J140" s="12">
-        <f t="shared" ref="J140:J145" si="18">I140*G140</f>
-        <v>150000</v>
+        <f t="shared" ref="J140:J145" si="20">I140*G140</f>
+        <v>75000</v>
       </c>
       <c r="K140" s="12">
-        <f t="shared" ref="K140:K145" si="19">I140*H140</f>
-        <v>20000</v>
+        <f t="shared" ref="K140:K145" si="21">I140*H140</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -6697,23 +6697,23 @@
         <v>5000</v>
       </c>
       <c r="G141" s="12">
-        <f t="shared" si="16"/>
-        <v>39000</v>
-      </c>
-      <c r="H141" s="12">
-        <f t="shared" si="17"/>
-        <v>10000</v>
-      </c>
-      <c r="I141" s="71">
-        <v>1</v>
-      </c>
-      <c r="J141" s="12">
         <f t="shared" si="18"/>
         <v>39000</v>
       </c>
-      <c r="K141" s="12">
+      <c r="H141" s="12">
         <f t="shared" si="19"/>
         <v>10000</v>
+      </c>
+      <c r="I141" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="J141" s="12">
+        <f t="shared" si="20"/>
+        <v>19500</v>
+      </c>
+      <c r="K141" s="12">
+        <f t="shared" si="21"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -6736,23 +6736,23 @@
         <v>10000</v>
       </c>
       <c r="G142" s="12">
-        <f t="shared" si="16"/>
-        <v>90000</v>
-      </c>
-      <c r="H142" s="12">
-        <f t="shared" si="17"/>
-        <v>20000</v>
-      </c>
-      <c r="I142" s="71">
-        <v>1</v>
-      </c>
-      <c r="J142" s="12">
         <f t="shared" si="18"/>
         <v>90000</v>
       </c>
-      <c r="K142" s="12">
+      <c r="H142" s="12">
         <f t="shared" si="19"/>
         <v>20000</v>
+      </c>
+      <c r="I142" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="J142" s="12">
+        <f t="shared" si="20"/>
+        <v>45000</v>
+      </c>
+      <c r="K142" s="12">
+        <f t="shared" si="21"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -6775,23 +6775,23 @@
         <v>5000</v>
       </c>
       <c r="G143" s="12">
-        <f t="shared" si="16"/>
-        <v>24000</v>
-      </c>
-      <c r="H143" s="12">
-        <f t="shared" si="17"/>
-        <v>10000</v>
-      </c>
-      <c r="I143" s="71">
-        <v>1</v>
-      </c>
-      <c r="J143" s="12">
         <f t="shared" si="18"/>
         <v>24000</v>
       </c>
-      <c r="K143" s="12">
+      <c r="H143" s="12">
         <f t="shared" si="19"/>
         <v>10000</v>
+      </c>
+      <c r="I143" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="J143" s="12">
+        <f t="shared" si="20"/>
+        <v>12000</v>
+      </c>
+      <c r="K143" s="12">
+        <f t="shared" si="21"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -6814,23 +6814,23 @@
         <v>10000</v>
       </c>
       <c r="G144" s="12">
-        <f t="shared" si="16"/>
-        <v>90000</v>
-      </c>
-      <c r="H144" s="12">
-        <f t="shared" si="17"/>
-        <v>20000</v>
-      </c>
-      <c r="I144" s="71">
-        <v>1</v>
-      </c>
-      <c r="J144" s="12">
         <f t="shared" si="18"/>
         <v>90000</v>
       </c>
-      <c r="K144" s="12">
+      <c r="H144" s="12">
         <f t="shared" si="19"/>
         <v>20000</v>
+      </c>
+      <c r="I144" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="J144" s="12">
+        <f t="shared" si="20"/>
+        <v>45000</v>
+      </c>
+      <c r="K144" s="12">
+        <f t="shared" si="21"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6853,48 +6853,48 @@
         <v>5000</v>
       </c>
       <c r="G145" s="12">
-        <f t="shared" si="16"/>
-        <v>24000</v>
-      </c>
-      <c r="H145" s="12">
-        <f t="shared" si="17"/>
-        <v>10000</v>
-      </c>
-      <c r="I145" s="71">
-        <v>1</v>
-      </c>
-      <c r="J145" s="12">
         <f t="shared" si="18"/>
         <v>24000</v>
       </c>
-      <c r="K145" s="12">
+      <c r="H145" s="12">
         <f t="shared" si="19"/>
         <v>10000</v>
       </c>
+      <c r="I145" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="J145" s="12">
+        <f t="shared" si="20"/>
+        <v>12000</v>
+      </c>
+      <c r="K145" s="12">
+        <f t="shared" si="21"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="146" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A146" s="65" t="s">
+      <c r="A146" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B146" s="66"/>
-      <c r="C146" s="66"/>
-      <c r="D146" s="66"/>
-      <c r="E146" s="66"/>
-      <c r="F146" s="67"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="70"/>
+      <c r="E146" s="70"/>
+      <c r="F146" s="71"/>
       <c r="G146" s="62"/>
       <c r="H146" s="62"/>
-      <c r="I146" s="72"/>
+      <c r="I146" s="65"/>
       <c r="J146" s="24">
         <f>SUM(J138:J145)</f>
-        <v>417000</v>
+        <v>208500</v>
       </c>
       <c r="K146" s="24">
         <f>SUM(K138:K145)</f>
-        <v>90000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I147" s="74"/>
+      <c r="I147" s="67"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41"/>
@@ -6907,7 +6907,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="73"/>
+      <c r="I148" s="66"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
     </row>
@@ -6920,7 +6920,7 @@
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
-      <c r="I149" s="71"/>
+      <c r="I149" s="64"/>
       <c r="J149" s="12"/>
       <c r="K149" s="12"/>
     </row>
@@ -6944,22 +6944,22 @@
         <v>20000</v>
       </c>
       <c r="G150" s="12">
-        <f t="shared" ref="G150:G159" si="20">E150*C150</f>
+        <f t="shared" ref="G150:G159" si="22">E150*C150</f>
         <v>30000</v>
       </c>
       <c r="H150" s="12">
-        <f t="shared" ref="H150:H159" si="21">F150*C150</f>
+        <f t="shared" ref="H150:H159" si="23">F150*C150</f>
         <v>20000</v>
       </c>
-      <c r="I150" s="71">
+      <c r="I150" s="64">
         <v>0</v>
       </c>
       <c r="J150" s="12">
-        <f t="shared" ref="J150:J159" si="22">I150*G150</f>
+        <f t="shared" ref="J150:J159" si="24">I150*G150</f>
         <v>0</v>
       </c>
       <c r="K150" s="12">
-        <f t="shared" ref="K150:K159" si="23">I150*H150</f>
+        <f t="shared" ref="K150:K159" si="25">I150*H150</f>
         <v>0</v>
       </c>
     </row>
@@ -6983,22 +6983,22 @@
         <v>20000</v>
       </c>
       <c r="G151" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20000</v>
       </c>
       <c r="H151" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
-      <c r="I151" s="71">
+      <c r="I151" s="64">
         <v>0</v>
       </c>
       <c r="J151" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K151" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -7022,22 +7022,22 @@
         <v>10000</v>
       </c>
       <c r="G152" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>90000</v>
       </c>
       <c r="H152" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
-      <c r="I152" s="71">
+      <c r="I152" s="64">
         <v>0</v>
       </c>
       <c r="J152" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K152" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -7061,22 +7061,22 @@
         <v>20000</v>
       </c>
       <c r="G153" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>60000</v>
       </c>
       <c r="H153" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
-      <c r="I153" s="71">
+      <c r="I153" s="64">
         <v>0</v>
       </c>
       <c r="J153" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K153" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -7100,22 +7100,22 @@
         <v>5000</v>
       </c>
       <c r="G154" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20000</v>
       </c>
       <c r="H154" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
-      <c r="I154" s="71">
+      <c r="I154" s="64">
         <v>0</v>
       </c>
       <c r="J154" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K154" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -7139,22 +7139,22 @@
         <v>20000</v>
       </c>
       <c r="G155" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>30000</v>
       </c>
       <c r="H155" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>20000</v>
       </c>
-      <c r="I155" s="71">
+      <c r="I155" s="64">
         <v>0</v>
       </c>
       <c r="J155" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K155" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -7178,22 +7178,22 @@
         <v>5000</v>
       </c>
       <c r="G156" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>15000</v>
       </c>
       <c r="H156" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
-      <c r="I156" s="71">
+      <c r="I156" s="64">
         <v>0</v>
       </c>
       <c r="J156" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K156" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -7217,22 +7217,22 @@
         <v>30000</v>
       </c>
       <c r="G157" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40000</v>
       </c>
       <c r="H157" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>30000</v>
       </c>
-      <c r="I157" s="71">
+      <c r="I157" s="64">
         <v>0</v>
       </c>
       <c r="J157" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K157" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -7256,22 +7256,22 @@
         <v>25000</v>
       </c>
       <c r="G158" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>130000</v>
       </c>
       <c r="H158" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>25000</v>
       </c>
-      <c r="I158" s="71">
+      <c r="I158" s="64">
         <v>0</v>
       </c>
       <c r="J158" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K158" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -7295,37 +7295,37 @@
         <v>10000</v>
       </c>
       <c r="G159" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40000</v>
       </c>
       <c r="H159" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10000</v>
       </c>
-      <c r="I159" s="71">
+      <c r="I159" s="64">
         <v>0</v>
       </c>
       <c r="J159" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K159" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A160" s="65" t="s">
+      <c r="A160" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B160" s="66"/>
-      <c r="C160" s="66"/>
-      <c r="D160" s="66"/>
-      <c r="E160" s="66"/>
-      <c r="F160" s="67"/>
+      <c r="B160" s="70"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="70"/>
+      <c r="F160" s="71"/>
       <c r="G160" s="62"/>
       <c r="H160" s="62"/>
-      <c r="I160" s="72"/>
+      <c r="I160" s="65"/>
       <c r="J160" s="24">
         <f>SUM(J150:J159)</f>
         <v>0</v>
@@ -7336,7 +7336,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I161" s="74"/>
+      <c r="I161" s="67"/>
     </row>
     <row r="162" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
@@ -7349,7 +7349,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="73"/>
+      <c r="I162" s="66"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
-      <c r="I163" s="71"/>
+      <c r="I163" s="64"/>
       <c r="J163" s="12"/>
       <c r="K163" s="12"/>
     </row>
@@ -7386,22 +7386,22 @@
         <v>10000</v>
       </c>
       <c r="G164" s="12">
-        <f t="shared" ref="G164:G169" si="24">E164*C164</f>
+        <f t="shared" ref="G164:G169" si="26">E164*C164</f>
         <v>10000</v>
       </c>
       <c r="H164" s="12">
-        <f t="shared" ref="H164:H169" si="25">F164*C164</f>
+        <f t="shared" ref="H164:H169" si="27">F164*C164</f>
         <v>10000</v>
       </c>
-      <c r="I164" s="71">
+      <c r="I164" s="64">
         <v>0</v>
       </c>
       <c r="J164" s="12">
-        <f t="shared" ref="J164:J169" si="26">I164*G164</f>
+        <f t="shared" ref="J164:J169" si="28">I164*G164</f>
         <v>0</v>
       </c>
       <c r="K164" s="12">
-        <f t="shared" ref="K164:K169" si="27">I164*H164</f>
+        <f t="shared" ref="K164:K169" si="29">I164*H164</f>
         <v>0</v>
       </c>
     </row>
@@ -7425,22 +7425,22 @@
         <v>5000</v>
       </c>
       <c r="G165" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15000</v>
       </c>
       <c r="H165" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5000</v>
       </c>
-      <c r="I165" s="71">
+      <c r="I165" s="64">
         <v>0</v>
       </c>
       <c r="J165" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K165" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -7464,22 +7464,22 @@
         <v>10000</v>
       </c>
       <c r="G166" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15000</v>
       </c>
       <c r="H166" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10000</v>
       </c>
-      <c r="I166" s="71">
+      <c r="I166" s="64">
         <v>0</v>
       </c>
       <c r="J166" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K166" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -7503,22 +7503,22 @@
         <v>10000</v>
       </c>
       <c r="G167" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>25000</v>
       </c>
       <c r="H167" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10000</v>
       </c>
-      <c r="I167" s="71">
+      <c r="I167" s="64">
         <v>0</v>
       </c>
       <c r="J167" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K167" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -7542,22 +7542,22 @@
         <v>30000</v>
       </c>
       <c r="G168" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>60000</v>
       </c>
       <c r="H168" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30000</v>
       </c>
-      <c r="I168" s="71">
+      <c r="I168" s="64">
         <v>0</v>
       </c>
       <c r="J168" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K168" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -7581,34 +7581,34 @@
         <v>10000</v>
       </c>
       <c r="G169" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>30000</v>
       </c>
       <c r="H169" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>10000</v>
       </c>
-      <c r="I169" s="71">
+      <c r="I169" s="64">
         <v>0</v>
       </c>
       <c r="J169" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K169" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A170" s="65" t="s">
+      <c r="A170" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="66"/>
-      <c r="C170" s="66"/>
-      <c r="D170" s="66"/>
-      <c r="E170" s="66"/>
-      <c r="F170" s="67"/>
+      <c r="B170" s="70"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="70"/>
+      <c r="E170" s="70"/>
+      <c r="F170" s="71"/>
       <c r="G170" s="62"/>
       <c r="H170" s="62"/>
       <c r="I170" s="61"/>
@@ -7659,8 +7659,8 @@
   </sheetPr>
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7679,36 +7679,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="68" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:11" s="8" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -7813,16 +7813,16 @@
         <f>F7*C7</f>
         <v>40000</v>
       </c>
-      <c r="I7" s="71">
-        <v>1</v>
+      <c r="I7" s="64">
+        <v>0.95</v>
       </c>
       <c r="J7" s="12">
         <f>I7*G7</f>
-        <v>1800000</v>
+        <v>1710000</v>
       </c>
       <c r="K7" s="12">
         <f>I7*H7</f>
-        <v>40000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="126" x14ac:dyDescent="0.25">
@@ -7852,16 +7852,16 @@
         <f t="shared" ref="H8:H14" si="1">F8*C8</f>
         <v>90000</v>
       </c>
-      <c r="I8" s="71">
-        <v>1</v>
+      <c r="I8" s="64">
+        <v>0.9</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" ref="J8:J14" si="2">I8*G8</f>
-        <v>1590000</v>
+        <v>1431000</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" ref="K8:K14" si="3">I8*H8</f>
-        <v>90000</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -7891,16 +7891,16 @@
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="I9" s="71">
-        <v>1</v>
+      <c r="I9" s="64">
+        <v>0.9</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="2"/>
-        <v>1080000</v>
+        <v>972000</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7930,16 +7930,16 @@
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="I10" s="71">
-        <v>1</v>
+      <c r="I10" s="64">
+        <v>0.9</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="2"/>
-        <v>1590000</v>
+        <v>1431000</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="3"/>
-        <v>90000</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7969,7 +7969,7 @@
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="64">
         <v>0</v>
       </c>
       <c r="J11" s="12">
@@ -8008,7 +8008,7 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="64">
         <v>1</v>
       </c>
       <c r="J12" s="12">
@@ -8047,7 +8047,7 @@
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="64">
         <v>0</v>
       </c>
       <c r="J13" s="12">
@@ -8086,7 +8086,7 @@
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="64">
         <v>0</v>
       </c>
       <c r="J14" s="12">
@@ -8099,24 +8099,24 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
       <c r="I15" s="61"/>
       <c r="J15" s="52">
         <f>SUM(J7:J14)</f>
-        <v>6100000</v>
+        <v>5584000</v>
       </c>
       <c r="K15" s="52">
         <f>SUM(K7:K14)</f>
-        <v>330000</v>
+        <v>301000</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -8612,14 +8612,14 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="71"/>
       <c r="G40" s="62"/>
       <c r="H40" s="62"/>
       <c r="I40" s="61"/>

--- a/Running projects/BAF Head Office/Running Bill No 1 - H.V.A.C Maintenance Scope.xlsx
+++ b/Running projects/BAF Head Office/Running Bill No 1 - H.V.A.C Maintenance Scope.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00871F64-06EB-4E19-AFE9-C3ED8747E5CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6EE37B-B35C-47F0-8153-E0F18BAF373C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A11:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1836,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="29">
-        <v>45761</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -1898,15 +1898,15 @@
       </c>
       <c r="C22" s="46">
         <f>AHUs!J28</f>
-        <v>792000</v>
+        <v>639000</v>
       </c>
       <c r="D22" s="46">
         <f>AHUs!K28</f>
-        <v>204000</v>
+        <v>172000</v>
       </c>
       <c r="E22" s="46">
         <f>D22+C22</f>
-        <v>996000</v>
+        <v>811000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,15 +1918,15 @@
       </c>
       <c r="C23" s="46">
         <f>AHUs!J52</f>
-        <v>820000</v>
+        <v>639000</v>
       </c>
       <c r="D23" s="46">
         <f>AHUs!K52</f>
-        <v>209500</v>
+        <v>172000</v>
       </c>
       <c r="E23" s="46">
         <f>D23+C23</f>
-        <v>1029500</v>
+        <v>811000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1938,15 +1938,15 @@
       </c>
       <c r="C24" s="46">
         <f>AHUs!J76</f>
-        <v>665000</v>
+        <v>521500</v>
       </c>
       <c r="D24" s="46">
         <f>AHUs!K76</f>
-        <v>179000</v>
+        <v>146000</v>
       </c>
       <c r="E24" s="46">
         <f>D24+C24</f>
-        <v>844000</v>
+        <v>667500</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1958,15 +1958,15 @@
       </c>
       <c r="C25" s="46">
         <f>AHUs!J100</f>
-        <v>661000</v>
+        <v>521500</v>
       </c>
       <c r="D25" s="46">
         <f>AHUs!K100</f>
-        <v>177000</v>
+        <v>146000</v>
       </c>
       <c r="E25" s="46">
         <f>D25+C25</f>
-        <v>838000</v>
+        <v>667500</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1989,15 +1989,15 @@
       </c>
       <c r="C27" s="46">
         <f>AHUs!J146</f>
-        <v>208500</v>
+        <v>272970</v>
       </c>
       <c r="D27" s="46">
         <f>AHUs!K146</f>
-        <v>45000</v>
+        <v>62300</v>
       </c>
       <c r="E27" s="46">
         <f>D27+C27</f>
-        <v>253500</v>
+        <v>335270</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,15 +2067,15 @@
       </c>
       <c r="C31" s="38">
         <f>SUM(C22:C30)</f>
-        <v>8730500</v>
+        <v>8177970</v>
       </c>
       <c r="D31" s="38">
         <f>SUM(D22:D30)</f>
-        <v>1115500</v>
+        <v>999300</v>
       </c>
       <c r="E31" s="38">
         <f>SUM(E22:E30)</f>
-        <v>9846000</v>
+        <v>9177270</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,11 +2086,11 @@
       <c r="C32" s="38"/>
       <c r="D32" s="38">
         <f>D31*15%</f>
-        <v>167325</v>
+        <v>149895</v>
       </c>
       <c r="E32" s="38">
         <f>D32</f>
-        <v>167325</v>
+        <v>149895</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2100,15 +2100,15 @@
       </c>
       <c r="C33" s="38">
         <f>C32+C31</f>
-        <v>8730500</v>
+        <v>8177970</v>
       </c>
       <c r="D33" s="38">
-        <f t="shared" ref="D33:E33" si="1">D32+D31</f>
-        <v>1282825</v>
+        <f>D32+D31</f>
+        <v>1149195</v>
       </c>
       <c r="E33" s="38">
-        <f t="shared" si="1"/>
-        <v>10013325</v>
+        <f>E32+E31</f>
+        <v>9327165</v>
       </c>
       <c r="G33" s="63"/>
     </row>
@@ -2130,8 +2130,8 @@
   </sheetPr>
   <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A153" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2302,15 +2302,15 @@
         <v>20000</v>
       </c>
       <c r="I8" s="64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="12">
         <f>I8*G8</f>
-        <v>49000</v>
+        <v>35000</v>
       </c>
       <c r="K8" s="12">
         <f>I8*H8</f>
-        <v>14000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
@@ -2575,15 +2575,15 @@
         <v>20000</v>
       </c>
       <c r="I15" s="64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -2614,15 +2614,15 @@
         <v>40000</v>
       </c>
       <c r="I16" s="64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="2"/>
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="3"/>
-        <v>28000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -2653,15 +2653,15 @@
         <v>30000</v>
       </c>
       <c r="I17" s="64">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="2"/>
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="3"/>
-        <v>7500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -2692,15 +2692,15 @@
         <v>30000</v>
       </c>
       <c r="I18" s="64">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="2"/>
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="3"/>
-        <v>7500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -2770,15 +2770,15 @@
         <v>30000</v>
       </c>
       <c r="I20" s="64">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="2"/>
-        <v>105000</v>
+        <v>60000</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2887,15 +2887,15 @@
         <v>20000</v>
       </c>
       <c r="I23" s="64">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J23" s="12">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3043,15 +3043,15 @@
         <v>10000</v>
       </c>
       <c r="I27" s="64">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="2"/>
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -3068,11 +3068,11 @@
       <c r="I28" s="65"/>
       <c r="J28" s="24">
         <f>SUM(J7:J27)</f>
-        <v>792000</v>
+        <v>639000</v>
       </c>
       <c r="K28" s="24">
         <f>SUM(K7:K27)</f>
-        <v>204000</v>
+        <v>172000</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3144,15 +3144,15 @@
         <v>20000</v>
       </c>
       <c r="I32" s="64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J32" s="12">
         <f t="shared" ref="J32:J51" si="6">I32*G32</f>
-        <v>49000</v>
+        <v>35000</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" ref="K32:K51" si="7">I32*H32</f>
-        <v>14000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
@@ -3417,15 +3417,15 @@
         <v>20000</v>
       </c>
       <c r="I39" s="64">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="6"/>
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="K39" s="12">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -3456,15 +3456,15 @@
         <v>40000</v>
       </c>
       <c r="I40" s="64">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="6"/>
-        <v>225000</v>
+        <v>150000</v>
       </c>
       <c r="K40" s="12">
         <f t="shared" si="7"/>
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -3495,15 +3495,15 @@
         <v>30000</v>
       </c>
       <c r="I41" s="64">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="6"/>
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="K41" s="12">
         <f t="shared" si="7"/>
-        <v>7500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3534,15 +3534,15 @@
         <v>30000</v>
       </c>
       <c r="I42" s="64">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="6"/>
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="K42" s="12">
         <f t="shared" si="7"/>
-        <v>7500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -3612,15 +3612,15 @@
         <v>30000</v>
       </c>
       <c r="I44" s="64">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="6"/>
-        <v>112500</v>
+        <v>60000</v>
       </c>
       <c r="K44" s="12">
         <f t="shared" si="7"/>
-        <v>22500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3729,15 +3729,15 @@
         <v>20000</v>
       </c>
       <c r="I47" s="64">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J47" s="12">
         <f t="shared" si="6"/>
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="K47" s="12">
         <f t="shared" si="7"/>
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3885,15 +3885,15 @@
         <v>10000</v>
       </c>
       <c r="I51" s="64">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J51" s="12">
         <f t="shared" si="6"/>
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="K51" s="12">
         <f t="shared" si="7"/>
-        <v>8000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -3910,11 +3910,11 @@
       <c r="I52" s="65"/>
       <c r="J52" s="24">
         <f>SUM(J30:J51)</f>
-        <v>820000</v>
+        <v>639000</v>
       </c>
       <c r="K52" s="24">
         <f>SUM(K30:K51)</f>
-        <v>209500</v>
+        <v>172000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -3986,15 +3986,15 @@
         <v>25000</v>
       </c>
       <c r="I56" s="64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J56" s="12">
         <f t="shared" ref="J56:J75" si="10">I56*G56</f>
-        <v>49000</v>
+        <v>35000</v>
       </c>
       <c r="K56" s="12">
         <f t="shared" ref="K56:K75" si="11">I56*H56</f>
-        <v>17500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
@@ -4259,15 +4259,15 @@
         <v>15000</v>
       </c>
       <c r="I63" s="64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J63" s="12">
         <f t="shared" si="10"/>
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="K63" s="12">
         <f t="shared" si="11"/>
-        <v>10500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -4298,15 +4298,15 @@
         <v>30000</v>
       </c>
       <c r="I64" s="64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J64" s="12">
         <f t="shared" si="10"/>
-        <v>192500</v>
+        <v>137500</v>
       </c>
       <c r="K64" s="12">
         <f t="shared" si="11"/>
-        <v>21000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -4337,15 +4337,15 @@
         <v>30000</v>
       </c>
       <c r="I65" s="64">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="J65" s="12">
         <f t="shared" si="10"/>
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="K65" s="12">
         <f t="shared" si="11"/>
-        <v>10500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4376,15 +4376,15 @@
         <v>30000</v>
       </c>
       <c r="I66" s="64">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J66" s="12">
         <f t="shared" si="10"/>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="K66" s="12">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -4454,15 +4454,15 @@
         <v>30000</v>
       </c>
       <c r="I68" s="64">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J68" s="12">
         <f t="shared" si="10"/>
-        <v>98000</v>
+        <v>56000</v>
       </c>
       <c r="K68" s="12">
         <f t="shared" si="11"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4571,15 +4571,15 @@
         <v>20000</v>
       </c>
       <c r="I71" s="64">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J71" s="12">
         <f t="shared" si="10"/>
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="K71" s="12">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -4727,15 +4727,15 @@
         <v>10000</v>
       </c>
       <c r="I75" s="64">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J75" s="12">
         <f t="shared" si="10"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="K75" s="12">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4752,11 +4752,11 @@
       <c r="I76" s="65"/>
       <c r="J76" s="24">
         <f>SUM(J55:J75)</f>
-        <v>665000</v>
+        <v>521500</v>
       </c>
       <c r="K76" s="24">
         <f>SUM(K55:K75)</f>
-        <v>179000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4818,15 +4818,15 @@
         <v>25000</v>
       </c>
       <c r="I80" s="64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J80" s="12">
         <f t="shared" ref="J80:J99" si="14">I80*G80</f>
-        <v>49000</v>
+        <v>35000</v>
       </c>
       <c r="K80" s="12">
         <f t="shared" ref="K80:K99" si="15">I80*H80</f>
-        <v>17500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
@@ -5091,15 +5091,15 @@
         <v>15000</v>
       </c>
       <c r="I87" s="64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J87" s="12">
         <f t="shared" si="14"/>
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="K87" s="12">
         <f t="shared" si="15"/>
-        <v>10500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -5130,15 +5130,15 @@
         <v>30000</v>
       </c>
       <c r="I88" s="64">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J88" s="12">
         <f t="shared" si="14"/>
-        <v>192500</v>
+        <v>137500</v>
       </c>
       <c r="K88" s="12">
         <f t="shared" si="15"/>
-        <v>21000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -5169,15 +5169,15 @@
         <v>30000</v>
       </c>
       <c r="I89" s="64">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="J89" s="12">
         <f t="shared" si="14"/>
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="K89" s="12">
         <f t="shared" si="15"/>
-        <v>7500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5208,15 +5208,15 @@
         <v>30000</v>
       </c>
       <c r="I90" s="64">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J90" s="12">
         <f t="shared" si="14"/>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="K90" s="12">
         <f t="shared" si="15"/>
-        <v>7500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -5286,15 +5286,15 @@
         <v>30000</v>
       </c>
       <c r="I92" s="64">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J92" s="12">
         <f t="shared" si="14"/>
-        <v>98000</v>
+        <v>56000</v>
       </c>
       <c r="K92" s="12">
         <f t="shared" si="15"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5403,15 +5403,15 @@
         <v>20000</v>
       </c>
       <c r="I95" s="64">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J95" s="12">
         <f t="shared" si="14"/>
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="K95" s="12">
         <f t="shared" si="15"/>
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5559,15 +5559,15 @@
         <v>10000</v>
       </c>
       <c r="I99" s="64">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J99" s="12">
         <f t="shared" si="14"/>
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="K99" s="12">
         <f t="shared" si="15"/>
-        <v>8000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -5584,11 +5584,11 @@
       <c r="I100" s="65"/>
       <c r="J100" s="24">
         <f>SUM(J78:J99)</f>
-        <v>661000</v>
+        <v>521500</v>
       </c>
       <c r="K100" s="24">
         <f>SUM(K78:K99)</f>
-        <v>177000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -6666,15 +6666,15 @@
         <v>20000</v>
       </c>
       <c r="I140" s="64">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J140" s="12">
         <f t="shared" ref="J140:J145" si="20">I140*G140</f>
-        <v>75000</v>
+        <v>90000</v>
       </c>
       <c r="K140" s="12">
         <f t="shared" ref="K140:K145" si="21">I140*H140</f>
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -6705,15 +6705,15 @@
         <v>10000</v>
       </c>
       <c r="I141" s="64">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J141" s="12">
         <f t="shared" si="20"/>
-        <v>19500</v>
+        <v>19890</v>
       </c>
       <c r="K141" s="12">
         <f t="shared" si="21"/>
-        <v>5000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -6783,15 +6783,15 @@
         <v>10000</v>
       </c>
       <c r="I143" s="64">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="J143" s="12">
         <f t="shared" si="20"/>
-        <v>12000</v>
+        <v>22800</v>
       </c>
       <c r="K143" s="12">
         <f t="shared" si="21"/>
-        <v>5000</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -6822,15 +6822,15 @@
         <v>20000</v>
       </c>
       <c r="I144" s="64">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J144" s="12">
         <f t="shared" si="20"/>
-        <v>45000</v>
+        <v>72000</v>
       </c>
       <c r="K144" s="12">
         <f t="shared" si="21"/>
-        <v>10000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6861,15 +6861,15 @@
         <v>10000</v>
       </c>
       <c r="I145" s="64">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="J145" s="12">
         <f t="shared" si="20"/>
-        <v>12000</v>
+        <v>23280</v>
       </c>
       <c r="K145" s="12">
         <f t="shared" si="21"/>
-        <v>5000</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -6886,11 +6886,11 @@
       <c r="I146" s="65"/>
       <c r="J146" s="24">
         <f>SUM(J138:J145)</f>
-        <v>208500</v>
+        <v>272970</v>
       </c>
       <c r="K146" s="24">
         <f>SUM(K138:K145)</f>
-        <v>45000</v>
+        <v>62300</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -7638,7 +7638,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.4" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="9" manualBreakCount="9">
+  <rowBreaks count="11" manualBreakCount="11">
     <brk id="10" max="10" man="1"/>
     <brk id="16" max="10" man="1"/>
     <brk id="22" max="10" man="1"/>
@@ -7648,6 +7648,8 @@
     <brk id="52" max="7" man="1"/>
     <brk id="76" max="7" man="1"/>
     <brk id="100" max="7" man="1"/>
+    <brk id="146" max="10" man="1"/>
+    <brk id="159" max="10" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -7659,8 +7661,8 @@
   </sheetPr>
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Running projects/BAF Head Office/Running Bill No 1 - H.V.A.C Maintenance Scope.xlsx
+++ b/Running projects/BAF Head Office/Running Bill No 1 - H.V.A.C Maintenance Scope.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6EE37B-B35C-47F0-8153-E0F18BAF373C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D6241A-90D1-4F46-84B6-AB4F541B76F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="126">
   <si>
     <t>S.NO</t>
   </si>
@@ -492,12 +492,22 @@
   <si>
     <t>BOQ OF OVERHAULING, REPAIRING AND REPLACEMENT WORKS OF AIR HANDLING UNITS (AHU) OF BA BUILDING KARACHI</t>
   </si>
+  <si>
+    <t>Tax on material 5.5% &amp; on lab 11%</t>
+  </si>
+  <si>
+    <t>Less 5/118% on material amount due to Unregistered</t>
+  </si>
+  <si>
+    <t>20%  SRB on Lab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -789,7 +799,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,6 +999,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1481,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A11:G33"/>
+  <dimension ref="A11:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1519,7 @@
     <col min="4" max="4" width="16" style="14" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="14" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="6.28515625" customWidth="1"/>
     <col min="258" max="258" width="40.7109375" customWidth="1"/>
     <col min="259" max="259" width="17.42578125" customWidth="1"/>
@@ -2093,7 +2117,7 @@
         <v>149895</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
       <c r="B33" s="34" t="s">
         <v>49</v>
@@ -2111,6 +2135,62 @@
         <v>9327165</v>
       </c>
       <c r="G33" s="63"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H35" s="80">
+        <v>9327165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="75">
+        <f>C31*5.5%</f>
+        <v>449788.35</v>
+      </c>
+      <c r="D37" s="79">
+        <f>D33*11%</f>
+        <v>126411.45</v>
+      </c>
+      <c r="H37" s="76"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="79">
+        <f>C31*5/118</f>
+        <v>346524.15254237287</v>
+      </c>
+      <c r="H38" s="76"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="77">
+        <f>D32*20%</f>
+        <v>29979</v>
+      </c>
+      <c r="H39" s="76"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="76"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="78"/>
+      <c r="D41" s="78">
+        <f>E33-C37-D37-C38-D39</f>
+        <v>8374462.047457628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="78"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="78"/>
+      <c r="E45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7661,7 +7741,7 @@
   </sheetPr>
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
